--- a/aiurt-module-system/src/main/resources/templates/patrolstandard.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/patrolstandard.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
-  <si>
-    <t>巡检标准表数据导入模板</t>
-  </si>
-  <si>
-    <t>巡检标准表数据导入模板
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>巡检标准表数据模板</t>
+  </si>
+  <si>
+    <t>巡检标准表数据
 填写须知：
 1.请勿增加、删除、或修改表格中的字段顺序、字段名称；
 2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
@@ -29,7 +29,10 @@
 3.是否与设备类型相关：必填字段，且只能填："是"、"否"；
 4.生效状态：必填字段，且只能填："未生效"、"生效"；
 5.设备类型名称：当“是否与设备类型相关”中填了“是”，为必填字段，反之不是必填字段；
-6.配置项：组件非必填，如果需要添加配置项，则标红的字段必填；</t>
+6.配置项：组件非必填，如果需要添加配置项，则标红的字段必填；
+7.层级类型：必填字段，只能填："一级"，"子级"
+8.父级：当层级类型填了"一级"，为必填字段，填一级的名称
+9.是否为巡视项目，必填项，只能填："是","否"</t>
   </si>
   <si>
     <t>巡视标准表名称</t>
@@ -51,6 +54,9 @@
   </si>
   <si>
     <t>层级类型</t>
+  </si>
+  <si>
+    <t>父级</t>
   </si>
   <si>
     <t>巡视项内容</t>
@@ -78,7 +84,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +98,11 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -552,10 +563,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,34 +575,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,98 +611,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,10 +718,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1061,24 +1073,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="7" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="8.875" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="13" max="14" width="10.875" customWidth="1"/>
-    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="8" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="14" max="15" width="10.875" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="19" max="19" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" customFormat="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1098,8 +1111,9 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
     </row>
-    <row r="2" ht="165" customHeight="1" spans="1:17">
+    <row r="2" customFormat="1" ht="192" customHeight="1" spans="1:18">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1119,8 +1133,9 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1145,93 +1160,80 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3" t="s">
+    <row r="4" spans="1:19">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="L4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>13</v>
-      </c>
+    <row r="5" spans="1:19">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/aiurt-module-system/src/main/resources/templates/patrolstandard.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/patrolstandard.xlsx
@@ -28,10 +28,10 @@
 2.适用专业：必填字段，且系统中已存在；
 3.是否与设备类型相关：必填字段，且只能填："是"、"否"；
 4.生效状态：必填字段，且只能填："未生效"、"生效"；
-5.设备类型名称：当“是否与设备类型相关”中填了“是”，为必填字段，反之不是必填字段；
+5.设备类型名称：当“是否与设备类型相关”中填了“是”，为必填字段，所填的必须是该专业下的设备类型反之不是必填字段；
 6.配置项：组件非必填，如果需要添加配置项，则标红的字段必填；
-7.层级类型：必填字段，只能填："一级"，"子级"
-8.父级：当层级类型填了"一级"，为必填字段，填一级的名称
+7.层级类型：必填字段，只能填："一级"，"子级"，填"一级"，父级字段不用填
+8.父级：当层级类型填了"子级"，为必填字段，填一级的巡检项的内容
 9.是否为巡视项目，必填项，只能填："是","否"</t>
   </si>
   <si>
@@ -84,7 +84,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +103,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -563,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,34 +581,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,98 +617,101 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -723,6 +729,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1076,7 +1085,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1186,13 +1195,13 @@
       <c r="I4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="M4" s="6"/>

--- a/aiurt-module-system/src/main/resources/templates/patrolstandard.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/patrolstandard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="巡检标准表数据导入模板" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>巡检标准表数据模板</t>
   </si>
@@ -26,19 +26,23 @@
 字段说明：
 1.巡视标准表名称：必填字段；
 2.适用专业：必填字段，且系统中已存在；
-3.是否与设备类型相关：必填字段，且只能填："是"、"否"；
-4.生效状态：必填字段，且只能填："未生效"、"生效"；
-5.设备类型名称：当“是否与设备类型相关”中填了“是”，为必填字段，所填的必须是该专业下的设备类型反之不是必填字段；
-6.配置项：组件非必填，如果需要添加配置项，则标红的字段必填；
-7.层级类型：必填字段，只能填："一级"，"子级"，填"一级"，父级字段不用填
-8.父级：当层级类型填了"子级"，为必填字段，填一级的巡检项的内容
-9.是否为巡视项目，必填项，只能填："是","否"</t>
+3.适用子系统：非必填，若填写，则必须是专业下的子系统；
+4.是否与设备类型相关：必填字段，且只能填："是"、"否"；
+5.生效状态：必填字段，且只能填："未生效"、"生效"；
+6.设备类型：当“是否与设备类型相关”中填了“是”，为必填字段，所填的必须是该专业下的设备类型名称，反之不是必填字段；
+7.配置项：非必填，如果需要添加配置项，则标红的字段必填；
+8.层级类型：必填字段，只能填："一级"，"子级"，填"一级"，则父级字段可不用填；
+9.父级：当层级类型填了"子级"，为必填字段，填一级的巡检项的内容；
+10.是否为巡视项目，必填项，只能填："是"、"否"；</t>
   </si>
   <si>
     <t>巡视标准表名称</t>
   </si>
   <si>
     <t>适用专业</t>
+  </si>
+  <si>
+    <t>适用子系统</t>
   </si>
   <si>
     <t>是否与设备类型相关</t>
@@ -711,7 +715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -722,6 +726,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1082,25 +1089,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="8" max="9" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="14" max="15" width="10.875" customWidth="1"/>
-    <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="19" max="19" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="9" max="10" width="10.875" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="15" max="16" width="10.875" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="20" max="20" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:18">
+    <row r="1" customFormat="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,8 +1129,9 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
     </row>
-    <row r="2" customFormat="1" ht="192" customHeight="1" spans="1:18">
+    <row r="2" customFormat="1" ht="214" customHeight="1" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1143,15 +1152,16 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1160,89 +1170,95 @@
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="M4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
+    <row r="5" spans="1:20">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="F3:L3"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="G3:M3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
